--- a/Weather/Guide&Template/SWP490_Templates & Samples & student guide/Project Reports/Report5_Test Case Document.xlsx
+++ b/Weather/Guide&Template/SWP490_Templates & Samples & student guide/Project Reports/Report5_Test Case Document.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KienNT\FPTU\Capstone2\CW2\Project Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FatBoy\Documents\SharableDisk\Weather\Guide&amp;Template\SWP490_Templates &amp; Samples &amp; student guide\Project Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8196" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="821" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="ACTION" localSheetId="3">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -439,7 +439,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -1995,18 +1995,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -2120,7 +2120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="24" customFormat="1" ht="39.6">
+    <row r="12" spans="1:7" s="24" customFormat="1" ht="25.5">
       <c r="B12" s="25" t="s">
         <v>15</v>
       </c>
@@ -2205,21 +2205,21 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="1.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="36" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="37" customWidth="1"/>
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="24.6">
+    <row r="1" spans="2:6" ht="25.5">
       <c r="B1" s="38"/>
       <c r="D1" s="39" t="s">
         <v>16</v>
@@ -2448,27 +2448,27 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="7" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="25.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="62"/>
-    <col min="9" max="9" width="23.109375" style="62" customWidth="1"/>
-    <col min="10" max="10" width="37.21875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" style="63" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="62" customWidth="1"/>
+    <col min="10" max="10" width="37.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="63" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="7" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8" thickBot="1"/>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:12" s="65" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="124" t="s">
         <v>73</v>
@@ -2638,7 +2638,7 @@
       <c r="I9" s="121"/>
       <c r="K9" s="74"/>
     </row>
-    <row r="10" spans="1:12" s="80" customFormat="1" ht="120.9" customHeight="1">
+    <row r="10" spans="1:12" s="80" customFormat="1" ht="120.95" customHeight="1">
       <c r="A10" s="75" t="str">
         <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[&lt;Feature Name1&gt;-]</v>
@@ -2808,23 +2808,23 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="7" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="25.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="62"/>
-    <col min="9" max="9" width="23.109375" style="62" customWidth="1"/>
-    <col min="10" max="10" width="37.21875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" style="63" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="62" customWidth="1"/>
+    <col min="10" max="10" width="37.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="63" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="7" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8" thickBot="1"/>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:12" s="65" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="124" t="s">
         <v>73</v>
@@ -2994,7 +2994,7 @@
       <c r="I9" s="121"/>
       <c r="K9" s="74"/>
     </row>
-    <row r="10" spans="1:12" s="80" customFormat="1" ht="120.9" customHeight="1">
+    <row r="10" spans="1:12" s="80" customFormat="1" ht="120.95" customHeight="1">
       <c r="A10" s="75" t="str">
         <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[&lt;Feature Name2&gt;-]</v>
@@ -3158,19 +3158,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="11.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="7" customWidth="1"/>
+    <col min="4" max="6" width="11.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
-    <col min="8" max="8" width="35.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="33.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="33.125" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
